--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mindl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAE\ITDS283-Sec2-Group2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1099E777-CEA3-455E-8FBA-342C6CDE0E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6708C8B8-E431-42A8-85F7-0445915420D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31B3B93B-2E52-4E1D-9C0C-F59F96301CE2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31B3B93B-2E52-4E1D-9C0C-F59F96301CE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,12 +379,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -393,27 +408,27 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,587 +764,581 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DEB4C3C-3BF9-4DB5-AE12-76976F6533B8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.8984375" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="35.8984375" customWidth="1"/>
-    <col min="4" max="4" width="58.8984375" customWidth="1"/>
-    <col min="5" max="5" width="47.59765625" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
+    <col min="4" max="4" width="58.875" customWidth="1"/>
+    <col min="5" max="5" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="22.8">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="22.8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.8">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+    <row r="5" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="22.8">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="45.6">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="22.8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.8">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="22.8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="22.8">
-      <c r="A12" s="5" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="22.8">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6" t="s">
+    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.8">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="22.8">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="6" t="s">
+    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:5" ht="22.8">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6" t="s">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" ht="22.8">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="22.8">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6" t="s">
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.8">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.8">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="22.8">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="7" t="s">
+    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="22.8">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="7" t="s">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" ht="22.8">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="22.8">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="7" t="s">
+    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="22.8">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="7" t="s">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="22.8">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="22.8">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7" t="s">
+    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" ht="22.8">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A28" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="22.8">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="7" t="s">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="22.8">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="7" t="s">
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" ht="22.8">
-      <c r="A31" s="4" t="s">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A31" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="22.8">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="7" t="s">
+    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" ht="22.8">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="7" t="s">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" ht="22.8">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="7" t="s">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" ht="22.8">
-      <c r="A35" s="4" t="s">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A35" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="22.8">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="7" t="s">
+    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="22.8">
-      <c r="A37" s="3" t="s">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A37" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="22.8">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A38" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="22.8">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="7" t="s">
+    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" ht="22.8">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="7" t="s">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A40" s="3"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" ht="22.8">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="7" t="s">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A41" s="3"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" ht="68.400000000000006">
-      <c r="A42" s="3" t="s">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A42" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="22.8">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="22.8">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="22.8">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="27" x14ac:dyDescent="0.6">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="C38:C41"/>
@@ -1346,32 +1355,41 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B38:B41"/>
     <mergeCell ref="B17:B19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="E31:E34"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="26" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>